--- a/pokemondf.xlsx
+++ b/pokemondf.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10723" uniqueCount="5462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10724" uniqueCount="5462">
   <si>
     <t>nummer</t>
   </si>
@@ -40932,6 +40932,9 @@
       <c r="I807" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="J807" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="K807" s="2" t="s">
         <v>3795</v>
       </c>
